--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2969874.300266576</v>
+        <v>2967986.718750175</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529973.1317590751</v>
+        <v>851402.2427478213</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>128.0041052504326</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>125.0208475101521</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -750,7 +750,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H3" t="n">
         <v>104.3883541553076</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>15.57897922163638</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>149.8794763036715</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>129.1935566495323</v>
+        <v>159.2820635664733</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -956,7 +956,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,13 +1069,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>99.34508049624304</v>
       </c>
       <c r="I7" t="n">
-        <v>122.5935461816079</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,13 +1139,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>355.2243569087324</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3088179022125</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,16 +1303,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>59.66385641544528</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>14.52687838733164</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>64.02545868683424</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>29.18937547121087</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>143.3158222056517</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>204.1291651532053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2056,10 +2056,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>252.8505008312588</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>110.8114120132042</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151917</v>
+        <v>183.1796758466998</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151916</v>
+        <v>206.806426921486</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>143.3674220664872</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2764,22 +2764,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>204.1291651532053</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>42.66059551718138</v>
       </c>
       <c r="D31" t="n">
-        <v>8.517127121913205</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801213</v>
+        <v>91.23070601801209</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943742</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348205</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897908</v>
+        <v>93.71057173897904</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571495</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523576</v>
+        <v>54.76109577523571</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>163.3813967235377</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,7 +3187,7 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898744</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
         <v>80.48358288857169</v>
@@ -3205,7 +3205,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1860.708406770827</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1491.745889830415</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>1133.480191223665</v>
+        <v>914.0785435469074</v>
       </c>
       <c r="E2" t="n">
-        <v>747.6919386254203</v>
+        <v>528.2902909486631</v>
       </c>
       <c r="F2" t="n">
-        <v>336.7060338358128</v>
+        <v>521.3447901994597</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>507.4213861380506</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>180.2266661740534</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4361,19 +4361,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2247.308246834948</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4389,10 +4389,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>500.1394333084169</v>
+        <v>546.4805193761945</v>
       </c>
       <c r="C4" t="n">
-        <v>500.1394333084169</v>
+        <v>377.5443364482876</v>
       </c>
       <c r="D4" t="n">
-        <v>500.1394333084169</v>
+        <v>227.4276970359519</v>
       </c>
       <c r="E4" t="n">
-        <v>352.2263397260238</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F4" t="n">
-        <v>205.3363922281134</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4528,10 +4528,10 @@
         <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084169</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>1187.828354776384</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>818.8658378359718</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>460.6001392292213</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2566.650548947988</v>
+        <v>2536.258117718754</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>2282.496332356846</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242508</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972394</v>
+        <v>1951.433445013275</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1577.967686752195</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355028</v>
+        <v>1187.828354776384</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4665,28 +4665,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>325.6879402326646</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="C7" t="n">
-        <v>325.6879402326646</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="D7" t="n">
-        <v>325.6879402326646</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="E7" t="n">
-        <v>177.7748466502715</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="F7" t="n">
-        <v>177.7748466502715</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="G7" t="n">
-        <v>177.7748466502715</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="H7" t="n">
-        <v>177.7748466502715</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629043</v>
+        <v>336.2769833124031</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1160.852583904132</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>791.8900669637198</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>433.6243683569693</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>426.9821918225993</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
         <v>53.94298182036445</v>
@@ -4805,16 +4805,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1547.452423968253</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064342</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>578.0123447940985</v>
+        <v>409.0761618661918</v>
       </c>
       <c r="E10" t="n">
-        <v>430.0992512117053</v>
+        <v>261.1630682837987</v>
       </c>
       <c r="F10" t="n">
-        <v>283.209303713795</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="G10" t="n">
-        <v>114.2095034521274</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858883</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805472</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5072,19 +5072,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L12" t="n">
-        <v>802.0403666355639</v>
+        <v>754.8724882112626</v>
       </c>
       <c r="M12" t="n">
-        <v>1570.408513028025</v>
+        <v>1062.192621491224</v>
       </c>
       <c r="N12" t="n">
-        <v>2374.820091292176</v>
+        <v>1392.055249155257</v>
       </c>
       <c r="O12" t="n">
-        <v>2623.573505376138</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028581</v>
+        <v>330.8254548799446</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028581</v>
+        <v>161.8892719520376</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387593</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799446</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>330.8254548799446</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028581</v>
+        <v>330.8254548799446</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,13 +5273,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,34 +5288,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5352,22 +5352,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>711.1141612171746</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
-        <v>1954.109744073479</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765188</v>
+        <v>786.0822064765189</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706319</v>
+        <v>531.397718270632</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>241.9805482336714</v>
       </c>
     </row>
     <row r="17">
@@ -5489,31 +5489,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514088</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C19" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D19" t="n">
-        <v>247.6350999123426</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5704,19 +5704,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.726309053207</v>
+        <v>986.0022165609662</v>
       </c>
       <c r="V19" t="n">
-        <v>765.0418208473205</v>
+        <v>874.0714973557094</v>
       </c>
       <c r="W19" t="n">
-        <v>475.6246508103599</v>
+        <v>584.6543273187489</v>
       </c>
       <c r="X19" t="n">
-        <v>247.6350999123425</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.6350999123425</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5832,22 +5832,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M21" t="n">
-        <v>417.5524109899876</v>
+        <v>629.3975440735812</v>
       </c>
       <c r="N21" t="n">
-        <v>1221.963989254138</v>
+        <v>1433.809122337732</v>
       </c>
       <c r="O21" t="n">
-        <v>1891.427750556798</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5923,7 +5923,7 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,22 +5935,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.4163915387938</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5972,28 +5972,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,13 +6005,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6023,16 +6023,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028584</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899876</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799368</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018334</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,7 +6260,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1891.427750556798</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,10 +6358,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
@@ -6391,7 +6391,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6412,22 +6412,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>781.8780707889952</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>561.085491645465</v>
       </c>
     </row>
     <row r="29">
@@ -6443,28 +6443,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6482,7 +6482,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6540,25 +6540,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>417.5524109899876</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1221.963989254138</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542188</v>
+        <v>439.5324299542182</v>
       </c>
       <c r="C31" t="n">
-        <v>439.5324299542188</v>
+        <v>396.4409193308027</v>
       </c>
       <c r="D31" t="n">
-        <v>430.9292712452155</v>
+        <v>396.4409193308027</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441932</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276536</v>
+        <v>304.2886910297804</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276536</v>
+        <v>191.8742346309718</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,31 +6622,31 @@
         <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667508</v>
       </c>
       <c r="M31" t="n">
-        <v>997.668872196205</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
         <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096193</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.62813016707</v>
@@ -6658,13 +6658,13 @@
         <v>1136.336733737483</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818929</v>
+        <v>902.680428981893</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652463</v>
+        <v>730.4517433652464</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030878</v>
+        <v>565.4200295030871</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,10 +6686,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6789,7 +6789,7 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2056.693778606511</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
         <v>2623.573505376138</v>
@@ -6832,13 +6832,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
         <v>398.9545963083204</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,7 +6892,7 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045206</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,61 +6926,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,22 +7011,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>436.8967109626374</v>
       </c>
       <c r="L36" t="n">
-        <v>711.1141612171746</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M36" t="n">
-        <v>1479.482307609636</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
@@ -7093,13 +7093,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7120,25 +7120,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>711.1141612171746</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229667</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D40" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083199</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525403</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254961</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010311</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7400,10 +7400,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028562</v>
@@ -7491,16 +7491,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>711.1141612171745</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>1479.482307609636</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.893885873787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,22 +7567,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
         <v>1932.236826184156</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>323.6581146605672</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982967</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>137.9476282330534</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9018,7 +9018,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9027,7 +9027,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>202.8611258896129</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,16 +9477,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>264.6493710622029</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9498,10 +9498,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>465.7050637499999</v>
@@ -9729,16 +9729,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10203,16 +10203,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10449,7 +10449,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10914,7 +10914,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11151,7 +11151,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,7 +23416,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>46.39378677743774</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>23.17774625772591</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,10 +23944,10 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>33.38685156731853</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>141.3262313106238</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338568</v>
+        <v>103.0576765518776</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338569</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>36.4645581154501</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24652,22 +24652,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700708</v>
+        <v>69.38296895288937</v>
       </c>
       <c r="D31" t="n">
-        <v>84.89508926774211</v>
+        <v>93.41221638965527</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437416</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.2159888357149</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>-2.700062395888381e-13</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -26314,46 +26314,46 @@
         <v>636307.3716448197</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934489</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934485</v>
       </c>
       <c r="G2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934488</v>
       </c>
       <c r="H2" t="n">
         <v>606095.0425934488</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934488</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="J2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
         <v>630574.3128851687</v>
       </c>
       <c r="L2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="M2" t="n">
         <v>636307.3716448202</v>
       </c>
       <c r="N2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.37164482</v>
       </c>
       <c r="O2" t="n">
+        <v>636307.3716448202</v>
+      </c>
+      <c r="P2" t="n">
         <v>636307.3716448201</v>
-      </c>
-      <c r="P2" t="n">
-        <v>636307.3716448202</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284566</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.9068008669</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284567</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758359</v>
+        <v>787.7936905758875</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758411</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759301</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758824</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758875</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477239</v>
+        <v>18952.41620477242</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189637</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189633</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26482,16 +26482,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-175578.7248137532</v>
       </c>
       <c r="C6" t="n">
-        <v>414389.1544007913</v>
+        <v>414389.1544007914</v>
       </c>
       <c r="D6" t="n">
-        <v>414389.1544007912</v>
+        <v>414389.1544007914</v>
       </c>
       <c r="E6" t="n">
-        <v>-11840.11352273988</v>
+        <v>-11937.57264871204</v>
       </c>
       <c r="F6" t="n">
-        <v>513319.9229541561</v>
+        <v>513222.4638281839</v>
       </c>
       <c r="G6" t="n">
-        <v>513319.9229541559</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="H6" t="n">
-        <v>513319.9229541563</v>
+        <v>513222.4638281841</v>
       </c>
       <c r="I6" t="n">
-        <v>513319.9229541563</v>
+        <v>513222.4638281838</v>
       </c>
       <c r="J6" t="n">
-        <v>336896.7037615632</v>
+        <v>336799.2446355908</v>
       </c>
       <c r="K6" t="n">
-        <v>470831.0828473279</v>
+        <v>470812.5891093935</v>
       </c>
       <c r="L6" t="n">
         <v>505042.7780920315</v>
       </c>
       <c r="M6" t="n">
-        <v>380584.6696590611</v>
+        <v>380584.6696590613</v>
       </c>
       <c r="N6" t="n">
-        <v>515385.6848928977</v>
+        <v>515385.6848928983</v>
       </c>
       <c r="O6" t="n">
-        <v>515385.6848928984</v>
+        <v>515385.6848928985</v>
       </c>
       <c r="P6" t="n">
-        <v>471223.0795900528</v>
+        <v>471223.0795900527</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964067</v>
@@ -26719,13 +26719,13 @@
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
@@ -26750,25 +26750,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="K3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541003</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108362</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855709</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="3">
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>285.7800647703624</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>26.91046873470917</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,10 +27433,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,7 +27470,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>130.8549834249328</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>17.43032595537946</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27667,7 +27667,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>87.25476370812552</v>
+        <v>57.16625679118451</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27676,7 +27676,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="I7" t="n">
-        <v>12.37207561073029</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,13 +27859,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>26.70601316352941</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>44.47535211858246</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,7 +27910,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,16 +28023,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>96.50703242634987</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>120.4387434050066</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-6.252776074688882e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29086,7 +29086,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855704</v>
+        <v>55.20325662855708</v>
       </c>
     </row>
     <row r="32">
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31382,7 +31382,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>35.71704454957967</v>
+        <v>35.71704454958012</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,7 +31610,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N9" t="n">
         <v>211.31907117367</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31838,13 +31838,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>353.0329386354459</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724846</v>
@@ -31853,16 +31853,16 @@
         <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -32075,22 +32075,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N15" t="n">
-        <v>131.4209907335603</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -32099,7 +32099,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677465</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,10 +32549,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -32561,7 +32561,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32570,16 +32570,16 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,37 +32786,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,25 +32935,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,37 +33023,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>256.9624847376522</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,37 +33260,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>340.8546090773502</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,16 +33427,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,13 +33506,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>321.3397097835</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -33521,13 +33521,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,25 +33646,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041499</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,22 +33734,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>216.4869287318324</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -33761,10 +33761,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33971,10 +33971,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358985</v>
@@ -33983,10 +33983,10 @@
         <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>81.10726598089786</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -33995,7 +33995,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34208,10 +34208,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
@@ -34220,10 +34220,10 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>91.84465193776708</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -34381,7 +34381,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540898</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946992</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -35030,7 +35030,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>585.3189041590309</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>420.3113304741616</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N15" t="n">
-        <v>479.4216529937805</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35963,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>60.72709196759461</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,16 +36118,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>122.5153371401846</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36528,13 +36528,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>441.4508459632592</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36765,13 +36765,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>592.1206839096353</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412256</v>
+        <v>67.7110267941226</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584676</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
         <v>305.4174435084856</v>
@@ -36999,16 +36999,16 @@
         <v>329.5130978075296</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043179</v>
+        <v>94.42895660043183</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,16 +37069,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
         <v>713.1546070951472</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,13 +37154,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303341</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>343.1107267700521</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>620.0980502594834</v>
@@ -37631,10 +37631,10 @@
         <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>332.3733408131829</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37643,7 +37643,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
@@ -37868,10 +37868,10 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>343.1107267700522</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38029,7 +38029,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951484</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38096,28 +38096,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
